--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FB3448-4831-4344-B669-63D5714CF40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44634133-D649-4947-B6DE-3AC84D8517BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="world-levle-actor-tick" sheetId="2" r:id="rId2"/>
+    <sheet name="cri" sheetId="3" r:id="rId3"/>
+    <sheet name="ScriptLevelActor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +682,125 @@
   </si>
   <si>
     <t>场景的光照贴图信息等，在加载的Serialize里初始化，场景内的静态物体LODINFO里面有各自的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大场景制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置多个SubLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>UGameplayStatics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>::</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>LoadStreamLevel(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF1403C"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"StreamingLevel1"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0066FF"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF121212"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>, info);</t>
+    </r>
+  </si>
+  <si>
+    <t>蓝图里面加载新的Level，注意参数，是否加载完显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个SubLevel加载就回调一次ScriptLevelActor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在设置的时候进行区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -687,7 +808,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,6 +856,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF121212"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF1403C"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0066FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -756,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -773,6 +918,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -1834,7 +1982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B58" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -2052,4 +2200,72 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB437272-E472-478F-B25E-5344F837A6B7}">
+  <dimension ref="B4:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01616E-B172-47B6-85A4-25A29CB93946}">
+  <dimension ref="B7:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44634133-D649-4947-B6DE-3AC84D8517BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4615C3D-8B89-45D4-8893-754AE1DD919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="world-levle-actor-tick" sheetId="2" r:id="rId2"/>
-    <sheet name="cri" sheetId="3" r:id="rId3"/>
-    <sheet name="ScriptLevelActor" sheetId="4" r:id="rId4"/>
+    <sheet name="加载于释放" sheetId="3" r:id="rId3"/>
+    <sheet name="LevelScriptActor" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="216">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -803,12 +803,78 @@
     <t>可以在设置的时候进行区分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先主后SubLevels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前看是先SubLevels在主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是为了保险最好是先子，后主的FinishedDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!要是关闭的话，是不是和GameInstance顺序又不对了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AWorldSettings::NotifyBeginPlay()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>if (!World-&gt;bBegunPlay)</t>
+  </si>
+  <si>
+    <t>for (FActorIterator It(World); It; ++It)</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_ActorBeginPlay);</t>
+  </si>
+  <si>
+    <t>const bool bFromLevelLoad = true;</t>
+  </si>
+  <si>
+    <t>It-&gt;DispatchBeginPlay(bFromLevelLoad);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>World-&gt;bBegunPlay = true;</t>
+  </si>
+  <si>
+    <t>这个的顺序很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -855,12 +921,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF121212"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2207,7 +2267,7 @@
   <dimension ref="B4:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2246,22 +2306,131 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01616E-B172-47B6-85A4-25A29CB93946}">
-  <dimension ref="B7:B10"/>
+  <dimension ref="B7:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+      <c r="J22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="P23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4615C3D-8B89-45D4-8893-754AE1DD919D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F7EFA0-F3AE-4D62-B06B-1EC2CEFBF19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -697,44 +697,90 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>蓝图里面加载新的Level，注意参数，是否加载完显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个SubLevel加载就回调一次ScriptLevelActor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在设置的时候进行区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginPlay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先主后SubLevels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前看是先SubLevels在主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是为了保险最好是先子，后主的FinishedDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!要是关闭的话，是不是和GameInstance顺序又不对了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AWorldSettings::NotifyBeginPlay()</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>UWorld* World = GetWorld();</t>
+  </si>
+  <si>
+    <t>if (!World-&gt;bBegunPlay)</t>
+  </si>
+  <si>
+    <t>for (FActorIterator It(World); It; ++It)</t>
+  </si>
+  <si>
+    <t>SCOPE_CYCLE_COUNTER(STAT_ActorBeginPlay);</t>
+  </si>
+  <si>
+    <t>const bool bFromLevelLoad = true;</t>
+  </si>
+  <si>
+    <t>It-&gt;DispatchBeginPlay(bFromLevelLoad);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>World-&gt;bBegunPlay = true;</t>
+  </si>
+  <si>
+    <t>这个的顺序很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>UGameplayStatics</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF121212"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>::</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF121212"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>LoadStreamLevel(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF121212"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>this</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF121212"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
+      <t xml:space="preserve">UGameplayStatics::LoadStreamLevel(this, </t>
     </r>
     <r>
       <rPr>
@@ -790,83 +836,13 @@
       </rPr>
       <t>, info);</t>
     </r>
-  </si>
-  <si>
-    <t>蓝图里面加载新的Level，注意参数，是否加载完显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个SubLevel加载就回调一次ScriptLevelActor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在设置的时候进行区分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginPlay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先主后SubLevels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginDestroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前看是先SubLevels在主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是为了保险最好是先子，后主的FinishedDestroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>!!!要是关闭的话，是不是和GameInstance顺序又不对了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void AWorldSettings::NotifyBeginPlay()</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>UWorld* World = GetWorld();</t>
-  </si>
-  <si>
-    <t>if (!World-&gt;bBegunPlay)</t>
-  </si>
-  <si>
-    <t>for (FActorIterator It(World); It; ++It)</t>
-  </si>
-  <si>
-    <t>SCOPE_CYCLE_COUNTER(STAT_ActorBeginPlay);</t>
-  </si>
-  <si>
-    <t>const bool bFromLevelLoad = true;</t>
-  </si>
-  <si>
-    <t>It-&gt;DispatchBeginPlay(bFromLevelLoad);</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>World-&gt;bBegunPlay = true;</t>
-  </si>
-  <si>
-    <t>这个的顺序很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadStreamLevel</t>
+  </si>
+  <si>
+    <t>仅仅是加载SubLevel 使用的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:F179"/>
+  <dimension ref="A3:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1406,60 +1382,63 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E37" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E43" s="4" t="s">
         <v>24</v>
       </c>
@@ -1467,7 +1446,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>25</v>
       </c>
@@ -1475,17 +1454,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E47" s="3" t="s">
         <v>29</v>
       </c>
@@ -1493,7 +1472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
       <c r="E48" s="3" t="s">
         <v>31</v>
       </c>
@@ -2264,10 +2243,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB437272-E472-478F-B25E-5344F837A6B7}">
-  <dimension ref="B4:E11"/>
+  <dimension ref="B4:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2289,12 +2268,20 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E11" s="9" t="s">
-        <v>193</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2308,7 +2295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01616E-B172-47B6-85A4-25A29CB93946}">
   <dimension ref="B7:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -2316,121 +2303,121 @@
   <sheetData>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F7EFA0-F3AE-4D62-B06B-1EC2CEFBF19E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E974D-5F3B-4A02-AE96-C37FCD62688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -843,6 +843,25 @@
   </si>
   <si>
     <t>仅仅是加载SubLevel 使用的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Notify the texture streaming system now that everything is set up.</t>
+  </si>
+  <si>
+    <t>IStreamingManager::Get().AddLevel(Level);</t>
+  </si>
+  <si>
+    <t>// send a callback that a level was added to the world</t>
+  </si>
+  <si>
+    <t>FWorldDelegates::LevelAddedToWorld.Broadcast(Level, this);</t>
+  </si>
+  <si>
+    <t>ULevelStreaming::BroadcastLevelVisibleStatus(this, Level-&gt;GetOutermost()-&gt;GetFName(), true);</t>
+  </si>
+  <si>
+    <t>加载子场景回调事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2243,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB437272-E472-478F-B25E-5344F837A6B7}">
-  <dimension ref="B4:E15"/>
+  <dimension ref="B4:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2282,6 +2301,41 @@
       </c>
       <c r="E15" s="3" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433E974D-5F3B-4A02-AE96-C37FCD62688B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="world-levle-actor-tick" sheetId="2" r:id="rId2"/>
     <sheet name="加载于释放" sheetId="3" r:id="rId3"/>
     <sheet name="LevelScriptActor" sheetId="4" r:id="rId4"/>
+    <sheet name="流式关卡" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -864,11 +864,14 @@
     <t>加载子场景回调事件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/461774425</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1256,7 +1259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G179"/>
   <sheetViews>
     <sheetView topLeftCell="D25" workbookViewId="0">
@@ -2037,7 +2040,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F48"/>
   <sheetViews>
     <sheetView topLeftCell="B58" workbookViewId="0">
@@ -2261,10 +2264,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB437272-E472-478F-B25E-5344F837A6B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -2346,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E01616E-B172-47B6-85A4-25A29CB93946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2478,4 +2481,26 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -17,6 +17,7 @@
     <sheet name="加载于释放" sheetId="3" r:id="rId3"/>
     <sheet name="LevelScriptActor" sheetId="4" r:id="rId4"/>
     <sheet name="流式关卡" sheetId="5" r:id="rId5"/>
+    <sheet name="关卡事件" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="244">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,6 +867,69 @@
   </si>
   <si>
     <t>https://zhuanlan.zhihu.com/p/461774425</t>
+  </si>
+  <si>
+    <t>关卡加载与卸载，会生成很多事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在这个里面做很多事情：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡加载/卸载监听</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UMG就是监听了这个，然后当World被删除的时候将自己移除的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Callback for world cleanup start</t>
+  </si>
+  <si>
+    <t>static FWorldCleanupEvent OnWorldCleanup;</t>
+  </si>
+  <si>
+    <t>// Sent when a ULevel is added to the world via UWorld::AddToWorld</t>
+  </si>
+  <si>
+    <t>static FOnLevelChanged</t>
+  </si>
+  <si>
+    <t>LevelAddedToWorld;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// Sent when a ULevel is removed from the world via UWorld::RemoveFromWorld or </t>
+  </si>
+  <si>
+    <t xml:space="preserve">// LoadMap (a NULL object means the LoadMap case, because all levels will be </t>
+  </si>
+  <si>
+    <t>// removed from the world without a RemoveFromWorld call for each)</t>
+  </si>
+  <si>
+    <t>LevelRemovedFromWorld;</t>
+  </si>
+  <si>
+    <t>OpenLevel的时候，流式关卡对应的资源为啥不加载？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要看看LoadLinker里面怎么实现的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结论：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在包被linkLoad加载的时候，所有的levelstreaming都已经被加载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为这个是存在在export表里面的，不是import，所以不会去加载其自身的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1262,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G179"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
@@ -2485,17 +2549,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6"/>
+  <dimension ref="B6:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2503,4 +2592,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D9:I27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>233</v>
+      </c>
+      <c r="I20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>233</v>
+      </c>
+      <c r="H27" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -9,15 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="world-levle-actor-tick" sheetId="2" r:id="rId2"/>
-    <sheet name="加载于释放" sheetId="3" r:id="rId3"/>
+    <sheet name="加载和释放" sheetId="3" r:id="rId3"/>
     <sheet name="LevelScriptActor" sheetId="4" r:id="rId4"/>
     <sheet name="流式关卡" sheetId="5" r:id="rId5"/>
     <sheet name="关卡事件" sheetId="6" r:id="rId6"/>
+    <sheet name="UWorldComposition" sheetId="7" r:id="rId7"/>
+    <sheet name="关卡流送体积域" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="299">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -931,12 +933,257 @@
     <t>因为这个是存在在export表里面的，不是import，所以不会去加载其自身的资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UWorldComposition</t>
+  </si>
+  <si>
+    <t>包含World包含的所有level package信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含了所有的level streaming对象，执行in和out处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World的组织者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4中的流关卡的加、卸载策略实现是由UWorldComposition类来负责的。这是一个基于视点距离和流关卡卡包围盒的简单的加载策略实现。</t>
+  </si>
+  <si>
+    <t>在UE4中，一个UWorld由一个一直存在的持久关卡(ULevel类)和多个动态加载卸载的子关卡组成。UE4中这种动态加载卸载的子关卡叫做流关卡(StreamingLevel ,ULevelStreaming类)，且场景中的具体物件都是放置在关卡或流关卡中而不是直接位于UWorld中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World Composition设计初衷就是为了简化大世界的管理。目标之一是避免使用持久关卡存储流信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久关卡不存储任何流信息，而是扫描文件夹将找到的所有关卡视为streamingLevel流关卡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个流关卡都存储在程序包头（package header）中，WorldComposition可以读取信息，无需将这个关卡加载到内存中。 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化时，除了持久关卡之外的关卡都会在WorldCompsition中卸载掉。我们可以随时手动加载或卸载世界的任意部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>export字段里面，而不是import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新LevelStreaming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum class ECurrentState : uint8</t>
+  </si>
+  <si>
+    <t>Removed,</t>
+  </si>
+  <si>
+    <t>Unloaded,</t>
+  </si>
+  <si>
+    <t>FailedToLoad,</t>
+  </si>
+  <si>
+    <t>Loading,</t>
+  </si>
+  <si>
+    <t>LoadedNotVisible,</t>
+  </si>
+  <si>
+    <t>MakingVisible,</t>
+  </si>
+  <si>
+    <t>LoadedVisible,</t>
+  </si>
+  <si>
+    <t>MakingInvisible</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>enum class ETargetState : uint8</t>
+  </si>
+  <si>
+    <t>UnloadedAndRemoved,</t>
+  </si>
+  <si>
+    <t>目标状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑层通过当前状态和目标状态来进行加载，显示，卸载等处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用各个levelstreaming的UpdateStreamingState函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是WorldComposition的UpdateStreamingState，和上面的用意是不一样的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是结合人的视野，计算需要加载和卸载那个levelstream，之后才交给上面处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorld::UpdateLevelStreaming()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UWorldComposition::UpdateStreamingState()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先通过ProcessLevelStreamingVolumes();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器模式下无效？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelAcriptActor的beginPlay是后于蓝图类和场景对象的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以需要注意：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是以LevetScriptActor作为场景内初始化资源的话，可能会晚于其他对象，导致一些问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>且这个顺序是：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldSetting永远是最先的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝图类也是无法避免这个顺序问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能逻辑层确保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要的问题是：玩家在一个大地图里面下线，在进入的时候位置都是之前的，那么就不能简单的这么加载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要自己根据位置计算要加载哪一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换场景时，Loading里面提前下载的场景也存在该问题，到底需要提前加载那个流式关卡的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！设置到网络游戏资源提前加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据玩家位置，计算流式关卡加载与卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家进入场景的时候，动态加载的话，怎么通过LOADING提前加载资源？？？？或者没加载完之前LOADING界面不取消？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关卡流送体积（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Level Streaming Volume</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个会计算视野和Level Streaming Volume，实现子关卡的加载和卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessLevelStreamingVolumes();</t>
+  </si>
+  <si>
+    <t>主要的实现就是这个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,6 +1249,27 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1023,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1044,6 +1312,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2107,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" workbookViewId="0">
+    <sheetView topLeftCell="B40" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -2332,7 +2601,7 @@
   <dimension ref="B4:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2414,10 +2683,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:P51"/>
+  <dimension ref="B7:V53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2466,125 +2735,407 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M40" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M41" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+      <c r="N43" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="M46" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3"/>
+      <c r="V46" s="3"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+      <c r="N47" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>212</v>
       </c>
+      <c r="M51" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M52" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:D20"/>
+  <dimension ref="B2:T53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="K13" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="K19" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L20" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>276</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C20" t="s">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B32" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2596,83 +3147,83 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D9:I27"/>
+  <dimension ref="D3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="A3" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D9" s="1" t="s">
+    <row r="3" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D3" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E10" s="1" t="s">
+    <row r="4" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E11">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E12">
+    <row r="6" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
+    <row r="10" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
         <v>233</v>
       </c>
-      <c r="I20" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E27" t="s">
-        <v>233</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="H21" t="s">
         <v>238</v>
       </c>
     </row>
@@ -2680,4 +3231,218 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="LevelScriptActor" sheetId="4" r:id="rId4"/>
     <sheet name="流式关卡" sheetId="5" r:id="rId5"/>
     <sheet name="关卡事件" sheetId="6" r:id="rId6"/>
-    <sheet name="UWorldComposition" sheetId="7" r:id="rId7"/>
-    <sheet name="关卡流送体积域" sheetId="8" r:id="rId8"/>
+    <sheet name="流式关卡阻塞式加载过程" sheetId="11" r:id="rId7"/>
+    <sheet name="UWorldComposition" sheetId="7" r:id="rId8"/>
+    <sheet name="无缝地图与TransitionMap " sheetId="10" r:id="rId9"/>
+    <sheet name="levelbounds" sheetId="9" r:id="rId10"/>
+    <sheet name="关卡流送体积域" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="327">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1056,10 +1059,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>编辑器模式下无效？？！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LevelAcriptActor的beginPlay是后于蓝图类和场景对象的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1178,12 +1177,120 @@
     <t>!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>主关卡和其子关卡必须在一个目录下面，且不能包含其他的场景，不然都加到sublevels了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是Enable World Composition设置，会扫描当前文件夹和子文件夹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (IsGameWorld())</t>
+  </si>
+  <si>
+    <t>if (WorldComposition)</t>
+  </si>
+  <si>
+    <t>WorldComposition-&gt;UpdateStreamingState();</t>
+  </si>
+  <si>
+    <t>使用levelstreamingVolumes进行子关卡的加载和卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用WC进行子关卡的加载和卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两种不同的子关卡加载卸载处理机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取人的ViewPort位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和所有的LevelStreamingVolumes进行计算，看看谁进入谁离开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取人的Viewport位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorldComposition::UpdateStreamingState(const FVector* InLocations, int32 Num)</t>
+  </si>
+  <si>
+    <t>根据每一个关卡的LevelBounds计算距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/34397446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">讲到了TransitionMap </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意可以阻塞式的等待流式关卡加载完</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEngine-&gt;BlockTillLevelStreamingCompleted(GetWorld());</t>
+  </si>
+  <si>
+    <t>玩家进入的时候不一定就是主Level，一般都是上次推出的Level，所以必须等玩家的所在的流式Level加载完之后才能且切换继续往下走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UEngine::BlockTillLevelStreamingCompleted(UWorld* InWorld)</t>
+  </si>
+  <si>
+    <t>InWorld-&gt;FlushLevelStreaming(EFlushLevelStreamingType::Full);</t>
+  </si>
+  <si>
+    <t>初次进入的时候，必须确保目标Level加载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换的时候，到底一定举例，就需要确保目标必须加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几个问题？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前在A，快接近B的时候加载B，但是走的速度太快提前走到了，怎么版？需要阻塞加载B吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家当前在A，快接近B的时候，B没加载出来前，服务器通知AOI通知了B的怪物人物等信息了，怎么办？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1270,6 +1377,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1291,7 +1407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1313,6 +1429,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2372,6 +2489,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C12" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J13" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F48"/>
@@ -2760,7 +2982,7 @@
         <v>207</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
@@ -2768,7 +2990,7 @@
         <v>205</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -2785,7 +3007,7 @@
         <v>208</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -2803,7 +3025,7 @@
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -2849,7 +3071,7 @@
         <v>211</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -2867,7 +3089,7 @@
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -2893,7 +3115,7 @@
         <v>212</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -2901,7 +3123,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M52" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -2925,19 +3147,19 @@
   <dimension ref="B2:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -2945,7 +3167,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -2953,7 +3175,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
@@ -3007,7 +3229,7 @@
         <v>276</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
@@ -3030,9 +3252,31 @@
         <v>243</v>
       </c>
     </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="K27" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L28" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="K29" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
@@ -3150,7 +3394,7 @@
   <dimension ref="D3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD8"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3235,156 +3479,69 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T31"/>
+  <dimension ref="B4:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>287</v>
-      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3395,49 +3552,276 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G19"/>
+  <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="3"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C12" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G12" s="3" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="10" t="s">
-        <v>294</v>
+    <row r="18" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="I24" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="J27" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="J31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>302</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="J34" t="s">
+        <v>212</v>
+      </c>
+      <c r="S34" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>212</v>
+      </c>
+      <c r="S35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C10:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B2C9D-57AA-4A5D-A3E1-5505E1CA1E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="348">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,11 +1286,81 @@
     <t>玩家当前在A，快接近B的时候，B没加载出来前，服务器通知AOI通知了B的怪物人物等信息了，怎么办？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>怎么能动态获取都有哪些流关卡？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWorldTilesGatherer Gatherer;</t>
+  </si>
+  <si>
+    <t>FString WorldRootFilename = FPackageName::LongPackageNameToFilename(WorldRoot);</t>
+  </si>
+  <si>
+    <t>Gatherer.BuildTileCollection(WorldRootFilename);</t>
+  </si>
+  <si>
+    <t>// Make sure we have persistent level name without PIE prefix</t>
+  </si>
+  <si>
+    <t>// Add found tiles to a world composition, except persistent level</t>
+  </si>
+  <si>
+    <t>for (const FString&amp; TilePackageName : Gatherer.TilesCollection)</t>
+  </si>
+  <si>
+    <t>挨个遍历了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWorldTileInfo Info;</t>
+  </si>
+  <si>
+    <t>FString TileFilename = FPackageName::LongPackageNameToFilename(TilePackageName, FPackageName::GetMapPackageExtension());</t>
+  </si>
+  <si>
+    <t>if (!FWorldTileInfo::Read(TileFilename, Info))</t>
+  </si>
+  <si>
+    <t>continue;</t>
+  </si>
+  <si>
+    <t>FWorldCompositionTile Tile;</t>
+  </si>
+  <si>
+    <t>Tile.PackageName = FName(*TilePackageName);</t>
+  </si>
+  <si>
+    <t>Tile.Info = Info;</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FString PersistentLevelPackageName = UWorld::StripPIEPrefixFromPackageName(OwningWorld-&gt;GetOutermost()-&gt;GetName(), OwningWorld-&gt;StreamingLevelsPrefix);</t>
+  </si>
+  <si>
+    <t>收集都有哪些关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集主关卡的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历所有流关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1709,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G179"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
@@ -2490,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2503,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B3:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2595,7 +2666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:F48"/>
   <sheetViews>
     <sheetView topLeftCell="B40" workbookViewId="0">
@@ -2819,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2904,7 +2975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B7:V53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -3143,7 +3214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3390,7 +3461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="D3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3478,11 +3549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:I27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="B4:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3525,23 +3596,139 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D35" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D39" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>333</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E52" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>343</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3551,10 +3738,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -3805,7 +3992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="C10:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161B2C9D-57AA-4A5D-A3E1-5505E1CA1E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC7EE7B-C084-43B8-ADB4-8BD3DC2A9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="无缝地图与TransitionMap " sheetId="10" r:id="rId9"/>
     <sheet name="levelbounds" sheetId="9" r:id="rId10"/>
     <sheet name="关卡流送体积域" sheetId="8" r:id="rId11"/>
+    <sheet name="场景管理于资源加载" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="391">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +226,6 @@
   </si>
   <si>
     <t>UWorld::CreateWorld(const EWorldType::Type InWorldType</t>
-  </si>
-  <si>
-    <t>提前把异步加载都处理完，阻塞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FWorldDelegates::OnWorldCleanup.Broadcast(this, bSessionEnded, bCleanupResources);</t>
@@ -1356,12 +1353,179 @@
     <t>遍历所有流关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>普通场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先切换到Loading场景，然后再该场景异步加载所有场景资源后，在OpenLevel到目标场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样子好处就是Loading不会卡主了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到比较复杂的流式关卡管理+主关卡（可以认为主关卡就是简单通用资源，寻路+天空盒+碰撞地面==）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次进入的坐标点不一样（副本是每次进入固定，其他的坐标点需要二次跳转，先进入到默认，在二次跳转到目标点）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡死加载，界面不能有动效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最简单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI表现力不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景比较小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景切换的方式以及各自的优劣式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界（WC方式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要计算目标场景主关卡+目的周围流关卡的所有资源依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算量比较麻烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先切换到Loading场景，然后异步加载目标场景的主关卡资源，在OpenLevel到目标场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading界面不需要关闭，然后再目标场景等待周围流式关卡加载完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需要计算周围流式关卡资源了，比较方便，但是就怕有其他的逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWorldDelegates::OnPostWorldInitialization.Broadcast(this, IVS);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到UserWidget为啥在切场景的时候销毁？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这部分可以修改一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认的Block是在PIE模式下，初次启动才会用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前把异步加载都处理完，阻塞！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">注意，大世界流式关卡在这个地方需要把always loaded的关卡都加载了 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Make sure "always loaded" sub-levels are fully loaded</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;FlushLevelStreaming(EFlushLevelStreamingType::Visibility);</t>
+  </si>
+  <si>
+    <t>!!!是阻塞式的加载，标记为always load的都在这个时机阻塞加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无缝地图是针对连接服务器来说的，切换地图不断开服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始LoadMap事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束LoadMap事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostLoadMapCaller.Broadcast(WorldContext.World());</t>
+  </si>
+  <si>
+    <t>MoviePlayerBlock.Finish();</t>
+  </si>
+  <si>
+    <t>FMoviePlayerProxy::BlockingForceFinished();</t>
+  </si>
+  <si>
+    <t>FMoviePlayerProxy::BlockingTick();</t>
+  </si>
+  <si>
+    <t>事件通知，是阻塞式的通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PostLoadMapWithWorld.Broadcast(World);</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PreLoadMapWithContext.Broadcast(WorldContext, URL.Map);</t>
+  </si>
+  <si>
+    <t>FCoreUObjectDelegates::PreLoadMap.Broadcast(URL.Map);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1457,13 +1621,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1478,7 +1665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1501,6 +1688,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1781,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G179"/>
+  <dimension ref="A4:G198"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1797,760 +1986,834 @@
     <col min="6" max="20" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
+      <c r="A4" s="1" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
+      <c r="B5" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>115</v>
+      <c r="B9" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C32" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C18" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C21" t="s">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C43" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44" s="5" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="5" t="s">
+      <c r="D44" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D35" t="s">
+    <row r="50" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="51" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E37" s="3" t="s">
+    <row r="52" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F52" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E38" t="s">
+      <c r="G52" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E39" s="3" t="s">
+    <row r="54" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
+    <row r="55" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E41" t="s">
+    <row r="56" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
+    <row r="57" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="3:7" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="E43" s="4" t="s">
+    <row r="58" spans="3:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E58" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E45" t="s">
+    <row r="60" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D46" t="s">
+    <row r="61" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E47" s="3" t="s">
+    <row r="62" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E62" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F62" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="E48" s="3" t="s">
+    <row r="63" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E63" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
+    <row r="64" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E50" t="s">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E51" s="3" t="s">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E66" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E52" t="s">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
         <v>36</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E53" s="3" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E68" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="E54" s="3" t="s">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E69" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C60" t="s">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C61" t="s">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C62" s="2" t="s">
+    <row r="77" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C77" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C63" s="2" t="s">
+    <row r="78" spans="2:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C78" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" s="1" t="s">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C82" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C67" s="3" t="s">
+      <c r="D82" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D67" s="5" t="s">
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C83" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D83" s="5"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C85" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C68" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C70" s="5" t="s">
+      <c r="D85" s="5"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C71" s="5"/>
-      <c r="D71" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="1" t="s">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C85" s="2" t="s">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C100" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D100" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D86" t="s">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D87" t="s">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C88" s="2" t="s">
+    <row r="103" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C103" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C89" s="2" t="s">
+    <row r="104" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C104" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C90" s="2" t="s">
+    <row r="105" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C105" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C91" s="2" t="s">
+    <row r="106" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C106" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C92" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D93" t="s">
+    <row r="107" spans="2:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C107" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="D107" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>64</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E109" s="3"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D113" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C114" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D115" s="2" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D94" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D95" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D96" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D97" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D98" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C99" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="100" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D100" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D101" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D104" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E105" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E106" s="1"/>
-      <c r="F106" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="107" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E107" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="108" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E108" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="109" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E109" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="110" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="D110" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D111" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D112" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C113" t="s">
-        <v>127</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C114" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="D115" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="116" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D116" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D117" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D119" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="3:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="1"/>
+      <c r="F121" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="123" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="124" spans="3:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="D125" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C128" t="s">
+        <v>126</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C129" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="130" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="D130" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D132" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D133" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="134" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D134" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D135" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D119" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D120" t="s">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D136" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="D121" t="s">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E137" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="138" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E138" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E140" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="141" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E141" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="142" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E142" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E143" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D144" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D145" t="s">
+        <v>377</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D146" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D148" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E122" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E123" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E124" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E125" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E126" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E127" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="E128" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>142</v>
+      </c>
+      <c r="D153" t="s">
+        <v>143</v>
+      </c>
+      <c r="E153" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B161" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C162" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D163" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D164" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D165" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D166" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D168" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D129" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C133" t="s">
-        <v>2</v>
-      </c>
-      <c r="D133" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>143</v>
-      </c>
-      <c r="D134" t="s">
-        <v>144</v>
-      </c>
-      <c r="E134" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E135" t="s">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C175" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C176" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B142" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C143" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D144" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="145" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D145" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D146" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="147" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D147" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D148" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D149" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="152" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B152" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="154" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C154" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="155" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C155" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="156" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C156" t="s">
+      <c r="D176" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C177" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D177" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C157" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D157" t="s">
+    <row r="178" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C178" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C179" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C180" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C181" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="158" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C158" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D158" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="159" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C159" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="160" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C160" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="C161" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C162" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C163" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="1" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="1" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
         <v>91</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2578,14 +2841,14 @@
   <dimension ref="B3:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:O13"/>
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
@@ -2599,23 +2862,23 @@
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C12" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2626,7 +2889,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="J13" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2655,7 +2918,297 @@
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F43E953-497A-47F1-B151-D97AA2D5A07F}">
+  <dimension ref="B1:O53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="11"/>
+    <col min="3" max="3" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="D9" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="D11" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="D12" s="5"/>
+      <c r="E12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="D13" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="D14" s="5"/>
+      <c r="E14" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="D16" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="D19" s="3"/>
+      <c r="E19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="D20" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="3"/>
+      <c r="E21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C25" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C26" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="5"/>
+      <c r="E32" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D33" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D34" s="5"/>
+      <c r="E34" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C36" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C38" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D39" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D42" s="3"/>
+      <c r="E42" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D44" s="3"/>
+      <c r="E44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C47" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D51" s="3"/>
+      <c r="E51" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
+      <c r="D53" s="3"/>
+      <c r="E53" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +3222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -2686,200 +3239,200 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E18" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="C29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D31" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D32" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D33" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E34" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E35" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E36" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D37" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="3:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="D38" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C44" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="D46" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="3:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="E47" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E48" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2901,70 +3454,70 @@
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E11" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2986,82 +3539,82 @@
   <sheetData>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B36" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -3075,10 +3628,10 @@
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -3092,11 +3645,11 @@
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
@@ -3109,7 +3662,7 @@
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -3124,7 +3677,7 @@
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -3139,10 +3692,10 @@
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -3156,11 +3709,11 @@
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
@@ -3173,20 +3726,20 @@
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -3194,7 +3747,7 @@
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="M52" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -3225,12 +3778,12 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.2">
@@ -3238,7 +3791,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
@@ -3246,108 +3799,108 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="L12" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="K13" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L13" t="s">
         <v>274</v>
-      </c>
-      <c r="L13" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="N14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K19" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L20" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="T22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K27" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="L28" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="K29" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
@@ -3355,102 +3908,102 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="G42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G50" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G51" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="52" spans="6:7" x14ac:dyDescent="0.2">
       <c r="G52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F53" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3472,12 +4025,12 @@
   <sheetData>
     <row r="3" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.2">
@@ -3485,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.2">
@@ -3493,53 +4046,53 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" t="s">
         <v>233</v>
-      </c>
-      <c r="I14" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3550,20 +4103,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="B4:L55"/>
+  <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -3577,7 +4135,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -3588,27 +4146,27 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
@@ -3616,7 +4174,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
@@ -3624,110 +4182,110 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D40" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
+        <v>332</v>
+      </c>
+      <c r="L41" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F47" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3741,7 +4299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -3750,7 +4308,7 @@
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3761,7 +4319,7 @@
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -3790,7 +4348,7 @@
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -3801,7 +4359,7 @@
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -3830,7 +4388,7 @@
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -3840,22 +4398,22 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -3869,43 +4427,43 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I24" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.2">
       <c r="I26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
@@ -3915,13 +4473,13 @@
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
       <c r="J27" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -3931,57 +4489,57 @@
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
       <c r="J30" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
       <c r="J31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.2">
       <c r="K32" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S33" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="J34" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="I35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3993,22 +4551,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="C10:C14"/>
+  <dimension ref="C4:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC7EE7B-C084-43B8-ADB4-8BD3DC2A9A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD23D1FB-8512-4F51-9C78-E56952E844B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="398">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1426,10 +1426,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大世界（WC方式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>需要计算目标场景主关卡+目的周围流关卡的所有资源依赖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1519,6 +1515,38 @@
   </si>
   <si>
     <t>FCoreUObjectDelegates::PreLoadMap.Broadcast(URL.Map);</t>
+  </si>
+  <si>
+    <t>大世界（WP方式-世界分区）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大世界（WC方式-流式关卡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界分区本质上还是流式关卡，只不过其流式关卡是被GRID-CELL管理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了默认加载的主关卡，其他流式关卡无法通过配置等手段获取， 也就是说只能靠其自己内部加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了默认的主关卡，其他CELL-流式关卡-LEVEL的信息我们没办法获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提前关闭角色CharMovementComponse里面的重力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止每次切换场景时强制加载周围关卡的处理！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涉及到源码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1972,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1988,58 +2016,58 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2432,7 +2460,7 @@
         <v>64</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -2607,7 +2635,7 @@
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
@@ -2630,20 +2658,20 @@
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -2930,10 +2958,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F43E953-497A-47F1-B151-D97AA2D5A07F}">
-  <dimension ref="B1:O53"/>
+  <dimension ref="B1:O85"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3051,7 +3079,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.2">
@@ -3085,23 +3113,23 @@
         <v>357</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D33" s="5" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" s="5"/>
       <c r="E34" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
         <v>363</v>
       </c>
@@ -3109,72 +3137,49 @@
         <v>348</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D41" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D42" s="3"/>
       <c r="E42" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D43" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D44" s="3"/>
       <c r="E44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="3"/>
+      <c r="E45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="3"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C49" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C47" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D48" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -3184,31 +3189,245 @@
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
-      <c r="N49" s="1" t="s">
-        <v>373</v>
-      </c>
+      <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D50" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D51" s="3"/>
-      <c r="E51" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D52" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
       <c r="D53" s="3"/>
       <c r="E53" t="s">
-        <v>370</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D54" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="D55" s="3"/>
+      <c r="E55" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="3" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C62" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C63" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C65" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D66" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D68" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D69" s="5"/>
+      <c r="E69" t="s">
+        <v>357</v>
+      </c>
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D70" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D71" s="5"/>
+      <c r="E71" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C73" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D74" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D76" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D77" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D78" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="O78" s="3"/>
+    </row>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="O79" s="3"/>
+    </row>
+    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="3"/>
+      <c r="E82" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="3"/>
+      <c r="E84" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -3770,7 +3989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -4113,7 +4332,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -4299,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -4561,7 +4780,7 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.2">

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD23D1FB-8512-4F51-9C78-E56952E844B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1109684A-BDB0-4EE5-B0EB-6FA6E96E2781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,13 @@
     <sheet name="LevelScriptActor" sheetId="4" r:id="rId4"/>
     <sheet name="流式关卡" sheetId="5" r:id="rId5"/>
     <sheet name="关卡事件" sheetId="6" r:id="rId6"/>
-    <sheet name="流式关卡阻塞式加载过程" sheetId="11" r:id="rId7"/>
-    <sheet name="UWorldComposition" sheetId="7" r:id="rId8"/>
-    <sheet name="无缝地图与TransitionMap " sheetId="10" r:id="rId9"/>
-    <sheet name="levelbounds" sheetId="9" r:id="rId10"/>
-    <sheet name="关卡流送体积域" sheetId="8" r:id="rId11"/>
-    <sheet name="场景管理于资源加载" sheetId="12" r:id="rId12"/>
+    <sheet name="初次加载场景-阻塞加载周围流式关卡" sheetId="13" r:id="rId7"/>
+    <sheet name="流式关卡阻塞式加载过程" sheetId="11" r:id="rId8"/>
+    <sheet name="UWorldComposition" sheetId="7" r:id="rId9"/>
+    <sheet name="无缝地图与TransitionMap " sheetId="10" r:id="rId10"/>
+    <sheet name="levelbounds" sheetId="9" r:id="rId11"/>
+    <sheet name="关卡流送体积域" sheetId="8" r:id="rId12"/>
+    <sheet name="场景管理于资源加载" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="441">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1546,6 +1547,156 @@
   </si>
   <si>
     <t>涉及到源码实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECLARE_SCOPE_CYCLE_COUNTER(TEXT("UEngine::LoadMap.LoadPackagesFully"), STAT_LoadMap_LoadPackagesFully, STATGROUP_LoadTime);</t>
+  </si>
+  <si>
+    <t>// load any per-map packages</t>
+  </si>
+  <si>
+    <t>check(WorldContext.World()-&gt;PersistentLevel);</t>
+  </si>
+  <si>
+    <t>LoadPackagesFully(WorldContext.World(), FULLYLOAD_Map, WorldContext.World()-&gt;PersistentLevel-&gt;GetOutermost()-&gt;GetName());</t>
+  </si>
+  <si>
+    <t>if (!GIsEditor &amp;&amp; !IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>// If requested, duplicate dynamic levels here after the source levels are created.</t>
+  </si>
+  <si>
+    <t>WorldContext.World()-&gt;DuplicateRequestedLevels(FName(*URL.Map));</t>
+  </si>
+  <si>
+    <t>！！！很重要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Block on async loading if requested.</t>
+  </si>
+  <si>
+    <t>if (Context.World()-&gt;bRequestedBlockOnAsyncLoading)</t>
+  </si>
+  <si>
+    <t>BlockTillLevelStreamingCompleted(Context.World());</t>
+  </si>
+  <si>
+    <t>Context.World()-&gt;bRequestedBlockOnAsyncLoading = false;</t>
+  </si>
+  <si>
+    <t>正常TICK时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置了该标志位，则会阻塞的等待异步加载的流式关卡强制完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会卡主线程，一般得慎重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载地图是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engin的Tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂只讨论正式游戏的模式，不讨论编辑器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除主关卡需要加载外，还阻塞加载了其他的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void AGameMode::InitGame(const FString&amp; MapName, const FString&amp; Options, FString&amp; ErrorMessage)</t>
+  </si>
+  <si>
+    <t>SetMatchState(MatchState::EnteringMap);</t>
+  </si>
+  <si>
+    <t>OnMatchStateSet</t>
+  </si>
+  <si>
+    <t>void AGameMode::HandleMatchHasStarted()</t>
+  </si>
+  <si>
+    <t>HandleMatchHasStarted();</t>
+  </si>
+  <si>
+    <t>!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if( IsServer() &amp;&amp; !AuthorityGameMode )</t>
+  </si>
+  <si>
+    <t>if( AuthorityGameMode != NULL )</t>
+  </si>
+  <si>
+    <t>return true;</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>UE_LOG(LogWorld, Error, TEXT("Failed to spawn GameMode actor."));</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>编辑器下创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>!!!!!!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当玩家第一次进入流式关卡的大场景时，可以在BeginPlay里面调用该函数，实现同步加载周围流式关卡的目的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在从当前地图A点传动到B点的时候，也可以通过该函数传递过去（Loading界面可以一直在动）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthorityGameMode = GetGameInstance()-&gt;CreateGameModeForURL(InURL, this);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有gameMode才有这个方法，我们一般是继承自gameModebase的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其逻辑也是为了实现这个机制，就是在状态为MatchState::InProgress时，强制阻塞加载周围流式关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，我们也可以类似的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！这个函数的目的就是游戏开始时强制加载流式关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2000,8 +2151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="C139" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2852,6 +3003,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="C4:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2864,7 +3047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B3:P19"/>
   <sheetViews>
@@ -2956,11 +3139,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F43E953-497A-47F1-B151-D97AA2D5A07F}">
   <dimension ref="B1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="P82" sqref="P82"/>
     </sheetView>
   </sheetViews>
@@ -4321,10 +4504,347 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418BAE0C-DC45-4151-9A87-69372A31DDE6}">
+  <dimension ref="A2:T71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="E22" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E23" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="R23" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>406</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>407</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>419</v>
+      </c>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>420</v>
+      </c>
+      <c r="R53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>421</v>
+      </c>
+      <c r="R54" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="S55" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D56" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="S56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E57" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="S57" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T58" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="E59" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="S59" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S60" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C61" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="S61" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="T62" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C63" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="T63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="S70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:L55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
@@ -4514,7 +5034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:X44"/>
   <sheetViews>
@@ -4766,36 +5286,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="C4:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1109684A-BDB0-4EE5-B0EB-6FA6E96E2781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25575780-974F-496E-B9BF-C94C369B8147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="无缝地图与TransitionMap " sheetId="10" r:id="rId10"/>
     <sheet name="levelbounds" sheetId="9" r:id="rId11"/>
     <sheet name="关卡流送体积域" sheetId="8" r:id="rId12"/>
-    <sheet name="场景管理于资源加载" sheetId="12" r:id="rId13"/>
+    <sheet name="Tile-Layer" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="411">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1355,110 +1355,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>普通场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先切换到Loading场景，然后再该场景异步加载所有场景资源后，在OpenLevel到目标场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样子好处就是Loading不会卡主了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及到比较复杂的流式关卡管理+主关卡（可以认为主关卡就是简单通用资源，寻路+天空盒+碰撞地面==）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次进入的坐标点不一样（副本是每次进入固定，其他的坐标点需要二次跳转，先进入到默认，在二次跳转到目标点）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡死加载，界面不能有动效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最简单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI表现力不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景比较小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景切换的方式以及各自的优劣式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要计算目标场景主关卡+目的周围流关卡的所有资源依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算量比较麻烦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先切换到Loading场景，然后异步加载目标场景的主关卡资源，在OpenLevel到目标场景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Loading界面不需要关闭，然后再目标场景等待周围流式关卡加载完毕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不需要计算周围流式关卡资源了，比较方便，但是就怕有其他的逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FWorldDelegates::OnPostWorldInitialization.Broadcast(this, IVS);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>涉及到UserWidget为啥在切场景的时候销毁？？！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这部分可以修改一下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认的Block是在PIE模式下，初次启动才会用到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1518,38 +1418,6 @@
     <t>FCoreUObjectDelegates::PreLoadMap.Broadcast(URL.Map);</t>
   </si>
   <si>
-    <t>大世界（WP方式-世界分区）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大世界（WC方式-流式关卡）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>世界分区本质上还是流式关卡，只不过其流式关卡是被GRID-CELL管理的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了默认加载的主关卡，其他流式关卡无法通过配置等手段获取， 也就是说只能靠其自己内部加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了默认的主关卡，其他CELL-流式关卡-LEVEL的信息我们没办法获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提前关闭角色CharMovementComponse里面的重力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禁止每次切换场景时强制加载周围关卡的处理！！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及到源码实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DECLARE_SCOPE_CYCLE_COUNTER(TEXT("UEngine::LoadMap.LoadPackagesFully"), STAT_LoadMap_LoadPackagesFully, STATGROUP_LoadTime);</t>
   </si>
   <si>
@@ -1697,6 +1565,18 @@
   </si>
   <si>
     <t>！！！！！这个函数的目的就是游戏开始时强制加载流式关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当Loadmap加载完场景后，可以动态的修改内存中WC里面Tile-Layer的数据，按照当前设备的高中低档位来判断是否需要加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现设备高中低分级处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既优化渲染，又优化了内存，因为彻底不加载了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1704,7 +1584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1800,36 +1680,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1844,7 +1701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1867,8 +1724,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2167,58 +2022,58 @@
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>380</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>388</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="D6" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>381</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>387</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>383</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>384</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2611,7 +2466,7 @@
         <v>64</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
@@ -2786,7 +2641,7 @@
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.2">
       <c r="E140" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.2">
@@ -2809,20 +2664,20 @@
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.2">
       <c r="D144" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D145" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D146" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -3014,7 +2869,7 @@
   <sheetData>
     <row r="4" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="3:3" x14ac:dyDescent="0.2">
@@ -3140,478 +2995,32 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F43E953-497A-47F1-B151-D97AA2D5A07F}">
-  <dimension ref="B1:O85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23CC32-4334-4628-8396-CF02F17D0A91}">
+  <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="P82" sqref="P82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="9" style="11"/>
-    <col min="3" max="3" width="9" style="3"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C6" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="D9" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="D11" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="D12" s="5"/>
-      <c r="E12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="D13" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="D14" s="5"/>
-      <c r="E14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="D16" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="D18" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="D19" s="3"/>
-      <c r="E19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="D20" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D21" s="3"/>
-      <c r="E21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C25" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C26" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C28" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D29" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D31" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D32" s="5"/>
-      <c r="E32" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D33" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D34" s="5"/>
-      <c r="E34" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C36" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C38" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D41" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D42" s="3"/>
-      <c r="E42" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D43" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D44" s="3"/>
-      <c r="E44" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D45" s="3"/>
-      <c r="E45" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="D46" s="3"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C49" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D50" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D52" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D53" s="3"/>
-      <c r="E53" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D54" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="D55" s="3"/>
-      <c r="E55" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="12"/>
-    </row>
-    <row r="59" spans="2:15" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="12"/>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="3" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C62" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C63" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="65" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C65" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="66" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D66" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="68" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D68" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D69" s="5"/>
-      <c r="E69" t="s">
-        <v>357</v>
-      </c>
-      <c r="M69" s="11"/>
-    </row>
-    <row r="70" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D70" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="71" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D71" s="5"/>
-      <c r="E71" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="73" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C73" s="3" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D74" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="75" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D76" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D77" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="78" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D78" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="O78" s="3"/>
-    </row>
-    <row r="79" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="O79" s="3"/>
-    </row>
-    <row r="80" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="3"/>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D81" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D82" s="3"/>
-      <c r="E82" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D83" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D84" s="3"/>
-      <c r="E84" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E85" t="s">
-        <v>395</v>
-      </c>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4507,7 +3916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418BAE0C-DC45-4151-9A87-69372A31DDE6}">
   <dimension ref="A2:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
@@ -4515,12 +3924,12 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -4528,7 +3937,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>319</v>
@@ -4544,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4552,7 +3961,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -4560,12 +3969,12 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4575,28 +3984,28 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>399</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="E22" s="3" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
@@ -4608,7 +4017,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E23" s="5" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
@@ -4618,12 +4027,12 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="R23" s="1" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
@@ -4633,12 +4042,12 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -4656,12 +4065,12 @@
         <v>2</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -4671,18 +4080,18 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -4692,12 +4101,12 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -4710,26 +4119,26 @@
         <v>3</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="R52" s="1"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="R53" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="R54" t="s">
         <v>204</v>
@@ -4737,18 +4146,18 @@
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="F55" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="S55" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D56" s="3" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="S56" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
@@ -4756,7 +4165,7 @@
         <v>316</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="S57" t="s">
         <v>204</v>
@@ -4764,12 +4173,12 @@
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="T58" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E59" s="3" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="S59" t="s">
         <v>211</v>
@@ -4777,12 +4186,12 @@
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="S60" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="S61" t="s">
         <v>204</v>
@@ -4790,23 +4199,23 @@
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="T62" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="T63" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
@@ -4819,7 +4228,7 @@
         <v>4</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="S70" t="s">
         <v>211</v>
@@ -4827,7 +4236,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="R71" t="s">
         <v>211</v>
@@ -4852,7 +4261,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25575780-974F-496E-B9BF-C94C369B8147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB748BA-9311-4281-87D4-F812287DBF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="729" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="412">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1577,6 +1577,10 @@
   </si>
   <si>
     <t>既优化渲染，又优化了内存，因为彻底不加载了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非WC模式需要自己判断加载，WC模式下不需要设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2006,8 +2010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:G198"/>
   <sheetViews>
-    <sheetView topLeftCell="C139" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2020,40 +2024,43 @@
     <col min="6" max="20" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>364</v>
       </c>
       <c r="D6" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>357</v>
       </c>
@@ -2061,17 +2068,17 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>359</v>
       </c>
@@ -2998,7 +3005,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23CC32-4334-4628-8396-CF02F17D0A91}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -3033,7 +3040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A4:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -3257,7 +3264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -3342,7 +3349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B7:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -3581,7 +3588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -3829,7 +3836,7 @@
   <dimension ref="D3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3916,8 +3923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418BAE0C-DC45-4151-9A87-69372A31DDE6}">
   <dimension ref="A2:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4447,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:X44"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_world_level.xlsx
+++ b/doc/ue_world_level.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB748BA-9311-4281-87D4-F812287DBF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="962" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +21,11 @@
     <sheet name="初次加载场景-阻塞加载周围流式关卡" sheetId="13" r:id="rId7"/>
     <sheet name="流式关卡阻塞式加载过程" sheetId="11" r:id="rId8"/>
     <sheet name="UWorldComposition" sheetId="7" r:id="rId9"/>
-    <sheet name="无缝地图与TransitionMap " sheetId="10" r:id="rId10"/>
-    <sheet name="levelbounds" sheetId="9" r:id="rId11"/>
-    <sheet name="关卡流送体积域" sheetId="8" r:id="rId12"/>
-    <sheet name="Tile-Layer" sheetId="14" r:id="rId13"/>
+    <sheet name="TimeManager" sheetId="15" r:id="rId10"/>
+    <sheet name="无缝地图与TransitionMap " sheetId="10" r:id="rId11"/>
+    <sheet name="levelbounds" sheetId="9" r:id="rId12"/>
+    <sheet name="关卡流送体积域" sheetId="8" r:id="rId13"/>
+    <sheet name="Tile-Layer" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="414">
   <si>
     <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1583,11 +1583,18 @@
     <t>非WC模式需要自己判断加载，WC模式下不需要设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>FWorldCompositionTile</t>
+  </si>
+  <si>
+    <t>是什么？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2007,10 +2014,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -2865,7 +2872,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2896,8 +2917,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2909,8 +2930,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3001,8 +3022,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB23CC32-4334-4628-8396-CF02F17D0A91}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3037,7 +3058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -3261,7 +3282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3346,7 +3367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:V53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -3585,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3832,7 +3853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,7 +3941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418BAE0C-DC45-4151-9A87-69372A31DDE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4257,7 +4278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L55"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -4451,11 +4472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A2:X44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:X42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4470,6 +4491,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="J2" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -4692,9 +4716,12 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>312</v>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
